--- a/simulations/raw_inclusion_exclusion/Jeyaraman_2020 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Jeyaraman_2020 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>409</v>
       </c>
       <c r="C2">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="D2">
-        <v>426.5</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>28.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>308</v>
       </c>
       <c r="C4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D4">
-        <v>314.5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>65</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>83.5</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>43.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>253</v>
       </c>
       <c r="C7">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="D7">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>160</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>161</v>
       </c>
       <c r="C9">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="D9">
-        <v>190</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>26.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>109</v>
       </c>
       <c r="C11">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>134.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>106</v>
       </c>
       <c r="C12">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>67</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>129</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D14">
-        <v>104.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>72</v>
       </c>
       <c r="C15">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>80.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>177</v>
       </c>
       <c r="C16">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D16">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>59</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>355</v>
       </c>
       <c r="C20">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D20">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>15.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>101.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>116</v>
       </c>
       <c r="C25">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D25">
-        <v>142.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>71</v>
       </c>
       <c r="C28">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -789,10 +789,10 @@
         <v>301</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -803,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -817,10 +817,10 @@
         <v>193</v>
       </c>
       <c r="C31">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="D31">
-        <v>240.5</v>
+        <v>189.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -831,10 +831,10 @@
         <v>333</v>
       </c>
       <c r="C32">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="D32">
-        <v>351.5</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -845,10 +845,10 @@
         <v>136</v>
       </c>
       <c r="C33">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>154.5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -859,10 +859,10 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>52</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -873,10 +873,10 @@
         <v>83</v>
       </c>
       <c r="C35">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D35">
-        <v>93</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -887,10 +887,10 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -901,10 +901,10 @@
         <v>1098</v>
       </c>
       <c r="C37">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="D37">
-        <v>1093</v>
+        <v>1097.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -915,10 +915,10 @@
         <v>494</v>
       </c>
       <c r="C38">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D38">
-        <v>498.5</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -929,10 +929,10 @@
         <v>456</v>
       </c>
       <c r="C39">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="D39">
-        <v>467.5</v>
+        <v>453.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -943,10 +943,10 @@
         <v>231</v>
       </c>
       <c r="C40">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D40">
-        <v>236.5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -957,10 +957,10 @@
         <v>325</v>
       </c>
       <c r="C41">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D41">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -971,10 +971,10 @@
         <v>240</v>
       </c>
       <c r="C42">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D42">
-        <v>242.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -985,10 +985,10 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>32.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -999,10 +999,10 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>18.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1013,10 +1013,10 @@
         <v>61</v>
       </c>
       <c r="C45">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>68.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>374</v>
       </c>
       <c r="C46">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D46">
-        <v>366.5</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1041,10 +1041,10 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1055,10 +1055,10 @@
         <v>270</v>
       </c>
       <c r="C48">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D48">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1069,10 +1069,10 @@
         <v>289</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="D49">
-        <v>156</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1083,10 +1083,10 @@
         <v>153</v>
       </c>
       <c r="C50">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="D50">
-        <v>167.5</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1097,10 +1097,10 @@
         <v>39</v>
       </c>
       <c r="C51">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>74</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1111,10 +1111,10 @@
         <v>453</v>
       </c>
       <c r="C52">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="D52">
-        <v>469.5</v>
+        <v>443.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1125,10 +1125,10 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1139,10 +1139,10 @@
         <v>104</v>
       </c>
       <c r="C54">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D54">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1153,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1167,10 +1167,10 @@
         <v>332</v>
       </c>
       <c r="C56">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D56">
-        <v>336.5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>33</v>
       </c>
       <c r="C57">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>46</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1195,10 +1195,10 @@
         <v>274</v>
       </c>
       <c r="C58">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D58">
-        <v>299.5</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1209,10 +1209,10 @@
         <v>102</v>
       </c>
       <c r="C59">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D59">
-        <v>113.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1223,10 +1223,10 @@
         <v>68</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D60">
-        <v>84</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1237,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>520</v>
       </c>
       <c r="C62">
-        <v>542</v>
+        <v>471</v>
       </c>
       <c r="D62">
-        <v>531</v>
+        <v>495.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,10 +1265,10 @@
         <v>245</v>
       </c>
       <c r="C63">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D63">
-        <v>263</v>
+        <v>260.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>118</v>
       </c>
       <c r="C64">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D64">
-        <v>129.5</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>30</v>
       </c>
       <c r="C65">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="D65">
-        <v>84.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1307,10 +1307,10 @@
         <v>111</v>
       </c>
       <c r="C66">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="D66">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>209</v>
       </c>
       <c r="C67">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D67">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>20.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1349,10 +1349,10 @@
         <v>35</v>
       </c>
       <c r="C69">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D69">
-        <v>51</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1363,10 +1363,10 @@
         <v>51</v>
       </c>
       <c r="C70">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D70">
-        <v>81.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>36</v>
       </c>
       <c r="C71">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D71">
-        <v>55</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +1391,10 @@
         <v>190</v>
       </c>
       <c r="C72">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D72">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>66</v>
       </c>
       <c r="C73">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D73">
-        <v>89.5</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1419,10 +1419,10 @@
         <v>99</v>
       </c>
       <c r="C74">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D74">
-        <v>113.5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1433,10 +1433,10 @@
         <v>147</v>
       </c>
       <c r="C75">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D75">
-        <v>149</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,10 +1447,10 @@
         <v>445</v>
       </c>
       <c r="C76">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D76">
-        <v>447.5</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1461,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C77">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>34</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1475,10 +1475,10 @@
         <v>97</v>
       </c>
       <c r="C78">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D78">
-        <v>100.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1489,10 +1489,10 @@
         <v>81</v>
       </c>
       <c r="C79">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>91</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,10 +1503,10 @@
         <v>101</v>
       </c>
       <c r="C80">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D80">
-        <v>112.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1517,10 +1517,10 @@
         <v>444</v>
       </c>
       <c r="C81">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D81">
-        <v>445.5</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1531,10 +1531,10 @@
         <v>73</v>
       </c>
       <c r="C82">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D82">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1545,10 +1545,10 @@
         <v>457</v>
       </c>
       <c r="C83">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="D83">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1559,10 +1559,10 @@
         <v>442</v>
       </c>
       <c r="C84">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D84">
-        <v>445.5</v>
+        <v>442.5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1573,10 +1573,10 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>18.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1587,10 +1587,10 @@
         <v>460</v>
       </c>
       <c r="C86">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D86">
-        <v>462.5</v>
+        <v>456.5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1601,10 +1601,10 @@
         <v>152</v>
       </c>
       <c r="C87">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D87">
-        <v>168.5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1615,10 +1615,10 @@
         <v>252</v>
       </c>
       <c r="C88">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D88">
-        <v>260</v>
+        <v>259.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,10 +1629,10 @@
         <v>64</v>
       </c>
       <c r="C89">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D89">
-        <v>80</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>62</v>
       </c>
       <c r="C90">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D90">
-        <v>74</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1657,10 +1657,10 @@
         <v>491</v>
       </c>
       <c r="C91">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D91">
-        <v>482.5</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1671,10 +1671,10 @@
         <v>45</v>
       </c>
       <c r="C92">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D92">
-        <v>60</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1685,10 +1685,10 @@
         <v>230</v>
       </c>
       <c r="C93">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D93">
-        <v>232.5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1699,10 +1699,10 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D94">
-        <v>23.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>555</v>
       </c>
       <c r="C95">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="D95">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1727,10 +1727,10 @@
         <v>117</v>
       </c>
       <c r="C96">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D96">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>69</v>
       </c>
       <c r="C97">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D97">
-        <v>78.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1755,7 +1755,7 @@
         <v>165.7473684210526</v>
       </c>
       <c r="C98">
-        <v>187.9895833333333</v>
+        <v>164.5208333333333</v>
       </c>
     </row>
   </sheetData>
